--- a/app/data/absenteeism_data_10.xlsx
+++ b/app/data/absenteeism_data_10.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>62667</v>
+        <v>97105</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Thomas da Luz</t>
+          <t>Dra. Olivia Nogueira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,56 +494,56 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45096</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>7916.49</v>
+        <v>2815.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61905</v>
+        <v>92017</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Pedro da Luz</t>
+          <t>Igor Oliveira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45083</v>
+        <v>45105</v>
       </c>
       <c r="G3" t="n">
-        <v>5504.39</v>
+        <v>4965.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>86864</v>
+        <v>72675</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anthony Nunes</t>
+          <t>Maria Julia Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,109 +552,109 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45079</v>
+        <v>45100</v>
       </c>
       <c r="G4" t="n">
-        <v>3548.5</v>
+        <v>6777.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>49096</v>
+        <v>18336</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vicente da Costa</t>
+          <t>Dr. Davi Silveira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45088</v>
+        <v>45085</v>
       </c>
       <c r="G5" t="n">
-        <v>12253.16</v>
+        <v>3313.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>62229</v>
+        <v>63121</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Joaquim Almeida</t>
+          <t>Kevin Pinto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45079</v>
       </c>
       <c r="G6" t="n">
-        <v>5274.75</v>
+        <v>5172.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>48768</v>
+        <v>24709</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fernanda Monteiro</t>
+          <t>Davi Luiz Campos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45095</v>
+        <v>45100</v>
       </c>
       <c r="G7" t="n">
-        <v>8802.379999999999</v>
+        <v>10941.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1558</v>
+        <v>74219</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Isaac Farias</t>
+          <t>Maria Vitória Pires</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,31 +664,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45089</v>
+        <v>45085</v>
       </c>
       <c r="G8" t="n">
-        <v>5927.45</v>
+        <v>7637.73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>37615</v>
+        <v>87149</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lucas Costa</t>
+          <t>Ana Clara Pereira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>11676.61</v>
+        <v>4870.72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>61219</v>
+        <v>82721</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>João Vitor Azevedo</t>
+          <t>Sr. João Melo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45106</v>
+        <v>45081</v>
       </c>
       <c r="G10" t="n">
-        <v>11633.13</v>
+        <v>5259.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25292</v>
+        <v>42236</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Davi Lucca Santos</t>
+          <t>Ana Júlia Barros</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45088</v>
+        <v>45098</v>
       </c>
       <c r="G11" t="n">
-        <v>12472.15</v>
+        <v>5981.86</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_10.xlsx
+++ b/app/data/absenteeism_data_10.xlsx
@@ -476,98 +476,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>99486</v>
+        <v>25392</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rafael Rezende</t>
+          <t>Joaquim da Rocha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45096</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>5476.91</v>
+        <v>8354.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97897</v>
+        <v>89862</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carolina da Conceição</t>
+          <t>Luiza Moraes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45086</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>8810.42</v>
+        <v>4337.79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>37379</v>
+        <v>94885</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eloah Teixeira</t>
+          <t>Sra. Maria Cecília Carvalho</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45098</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>7757.35</v>
+        <v>7462.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25421</v>
+        <v>9684</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Samuel Nascimento</t>
+          <t>Maria Cecília Vieira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,118 +577,118 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45085</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>2830.23</v>
+        <v>3798.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21167</v>
+        <v>3928</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Otávio Gonçalves</t>
+          <t>Vinicius Freitas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45095</v>
+        <v>45088</v>
       </c>
       <c r="G6" t="n">
-        <v>11420.69</v>
+        <v>7093.79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29197</v>
+        <v>97736</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luiz Felipe da Cruz</t>
+          <t>Dra. Maria Barbosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45100</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>7118.59</v>
+        <v>8602.629999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>81942</v>
+        <v>90928</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bryan Silveira</t>
+          <t>Rebeca Ribeiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>5743.26</v>
+        <v>10667.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6457</v>
+        <v>58107</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sr. Davi Teixeira</t>
+          <t>Helena Sales</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -700,19 +700,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45089</v>
+        <v>45080</v>
       </c>
       <c r="G9" t="n">
-        <v>10059.84</v>
+        <v>2993.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67288</v>
+        <v>9896</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Ana Lívia Dias</t>
+          <t>Ana Lívia Nunes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45087</v>
+        <v>45100</v>
       </c>
       <c r="G10" t="n">
-        <v>11462.61</v>
+        <v>5818.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4835</v>
+        <v>16192</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dr. Luiz Henrique Jesus</t>
+          <t>Daniel Silveira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45087</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>9174.940000000001</v>
+        <v>5901.85</v>
       </c>
     </row>
   </sheetData>
